--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.863113</v>
+        <v>81.295946</v>
       </c>
       <c r="H2">
-        <v>49.726226</v>
+        <v>162.591892</v>
       </c>
       <c r="I2">
-        <v>0.0840270138440103</v>
+        <v>0.2087576831039754</v>
       </c>
       <c r="J2">
-        <v>0.05854365446293047</v>
+        <v>0.1513633345147276</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>50.199768850198</v>
+        <v>880.9548201627781</v>
       </c>
       <c r="R2">
-        <v>200.799075400792</v>
+        <v>3523.819280651112</v>
       </c>
       <c r="S2">
-        <v>0.0003340370690922721</v>
+        <v>0.003855466858579238</v>
       </c>
       <c r="T2">
-        <v>0.0001584810410547281</v>
+        <v>0.001910654366584494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.863113</v>
+        <v>81.295946</v>
       </c>
       <c r="H3">
-        <v>49.726226</v>
+        <v>162.591892</v>
       </c>
       <c r="I3">
-        <v>0.0840270138440103</v>
+        <v>0.2087576831039754</v>
       </c>
       <c r="J3">
-        <v>0.05854365446293047</v>
+        <v>0.1513633345147276</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>3473.248012297616</v>
+        <v>11356.62227221323</v>
       </c>
       <c r="R3">
-        <v>20839.4880737857</v>
+        <v>68139.73363327939</v>
       </c>
       <c r="S3">
-        <v>0.02311153243993233</v>
+        <v>0.04970184599004813</v>
       </c>
       <c r="T3">
-        <v>0.0164476044443386</v>
+        <v>0.03694612840085076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.863113</v>
+        <v>81.295946</v>
       </c>
       <c r="H4">
-        <v>49.726226</v>
+        <v>162.591892</v>
       </c>
       <c r="I4">
-        <v>0.0840270138440103</v>
+        <v>0.2087576831039754</v>
       </c>
       <c r="J4">
-        <v>0.05854365446293047</v>
+        <v>0.1513633345147276</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>4633.361784812799</v>
+        <v>12204.21895395248</v>
       </c>
       <c r="R4">
-        <v>27800.17070887679</v>
+        <v>73225.31372371488</v>
       </c>
       <c r="S4">
-        <v>0.03083110990533777</v>
+        <v>0.0534113221641879</v>
       </c>
       <c r="T4">
-        <v>0.02194133606764892</v>
+        <v>0.0397035870082656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.863113</v>
+        <v>81.295946</v>
       </c>
       <c r="H5">
-        <v>49.726226</v>
+        <v>162.591892</v>
       </c>
       <c r="I5">
-        <v>0.0840270138440103</v>
+        <v>0.2087576831039754</v>
       </c>
       <c r="J5">
-        <v>0.05854365446293047</v>
+        <v>0.1513633345147276</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>744.9815228991686</v>
+        <v>2639.616199669958</v>
       </c>
       <c r="R5">
-        <v>2979.926091596674</v>
+        <v>10558.46479867983</v>
       </c>
       <c r="S5">
-        <v>0.004957222914307386</v>
+        <v>0.01155218467993166</v>
       </c>
       <c r="T5">
-        <v>0.002351912170510549</v>
+        <v>0.005724918125851994</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.863113</v>
+        <v>81.295946</v>
       </c>
       <c r="H6">
-        <v>49.726226</v>
+        <v>162.591892</v>
       </c>
       <c r="I6">
-        <v>0.0840270138440103</v>
+        <v>0.2087576831039754</v>
       </c>
       <c r="J6">
-        <v>0.05854365446293047</v>
+        <v>0.1513633345147276</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>155.4868310024993</v>
+        <v>4234.725365265688</v>
       </c>
       <c r="R6">
-        <v>932.9209860149961</v>
+        <v>25408.35219159413</v>
       </c>
       <c r="S6">
-        <v>0.001034633555096847</v>
+        <v>0.01853312216164494</v>
       </c>
       <c r="T6">
-        <v>0.0007363096109399561</v>
+        <v>0.01377669375076915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.863113</v>
+        <v>81.295946</v>
       </c>
       <c r="H7">
-        <v>49.726226</v>
+        <v>162.591892</v>
       </c>
       <c r="I7">
-        <v>0.0840270138440103</v>
+        <v>0.2087576831039754</v>
       </c>
       <c r="J7">
-        <v>0.05854365446293047</v>
+        <v>0.1513633345147276</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>3570.472298412192</v>
+        <v>16383.94487478565</v>
       </c>
       <c r="R7">
-        <v>21422.83379047315</v>
+        <v>98303.66924871391</v>
       </c>
       <c r="S7">
-        <v>0.02375847796024369</v>
+        <v>0.07170374124958354</v>
       </c>
       <c r="T7">
-        <v>0.01690801112843771</v>
+        <v>0.05330135286240556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>95.837189</v>
       </c>
       <c r="I8">
-        <v>0.1079633217673913</v>
+        <v>0.08203258389144356</v>
       </c>
       <c r="J8">
-        <v>0.1128309893759997</v>
+        <v>0.08921869546581183</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>64.49989770056466</v>
+        <v>346.176481339759</v>
       </c>
       <c r="R8">
-        <v>386.999386203388</v>
+        <v>2077.058888038554</v>
       </c>
       <c r="S8">
-        <v>0.0004291923504457136</v>
+        <v>0.00151502883062539</v>
       </c>
       <c r="T8">
-        <v>0.0003054399801923182</v>
+        <v>0.00112620464275078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>95.837189</v>
       </c>
       <c r="I9">
-        <v>0.1079633217673913</v>
+        <v>0.08203258389144356</v>
       </c>
       <c r="J9">
-        <v>0.1128309893759997</v>
+        <v>0.08921869546581183</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>4462.652849067893</v>
@@ -1013,10 +1013,10 @@
         <v>40163.87564161104</v>
       </c>
       <c r="S9">
-        <v>0.02969518609791442</v>
+        <v>0.01953063853801982</v>
       </c>
       <c r="T9">
-        <v>0.03169941301657034</v>
+        <v>0.02177730418667249</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>95.837189</v>
       </c>
       <c r="I10">
-        <v>0.1079633217673913</v>
+        <v>0.08203258389144356</v>
       </c>
       <c r="J10">
-        <v>0.1128309893759997</v>
+        <v>0.08921869546581183</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>5953.241777306559</v>
+        <v>4795.721049802107</v>
       </c>
       <c r="R10">
-        <v>53579.17599575903</v>
+        <v>43161.48944821896</v>
       </c>
       <c r="S10">
-        <v>0.03961379664562555</v>
+        <v>0.02098829945341171</v>
       </c>
       <c r="T10">
-        <v>0.04228746359371384</v>
+        <v>0.0234026440389112</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>95.837189</v>
       </c>
       <c r="I11">
-        <v>0.1079633217673913</v>
+        <v>0.08203258389144356</v>
       </c>
       <c r="J11">
-        <v>0.1128309893759997</v>
+        <v>0.08921869546581183</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>957.2002643916101</v>
+        <v>1037.253020444716</v>
       </c>
       <c r="R11">
-        <v>5743.201586349661</v>
+        <v>6223.518122668293</v>
       </c>
       <c r="S11">
-        <v>0.006369359424858392</v>
+        <v>0.004539500270339496</v>
       </c>
       <c r="T11">
-        <v>0.004532832457396218</v>
+        <v>0.003374461381117352</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>95.837189</v>
       </c>
       <c r="I12">
-        <v>0.1079633217673913</v>
+        <v>0.08203258389144356</v>
       </c>
       <c r="J12">
-        <v>0.1128309893759997</v>
+        <v>0.08921869546581183</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>199.7794994509549</v>
+        <v>1664.060735960363</v>
       </c>
       <c r="R12">
-        <v>1798.015495058594</v>
+        <v>14976.54662364327</v>
       </c>
       <c r="S12">
-        <v>0.001329363859432491</v>
+        <v>0.007282701531700219</v>
       </c>
       <c r="T12">
-        <v>0.001419087049682174</v>
+        <v>0.00812045168148718</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>95.837189</v>
       </c>
       <c r="I13">
-        <v>0.1079633217673913</v>
+        <v>0.08203258389144356</v>
       </c>
       <c r="J13">
-        <v>0.1128309893759997</v>
+        <v>0.08921869546581183</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>4587.572876630446</v>
+        <v>6438.169424136737</v>
       </c>
       <c r="R13">
-        <v>41288.15588967402</v>
+        <v>57943.52481723063</v>
       </c>
       <c r="S13">
-        <v>0.03052642338911474</v>
+        <v>0.02817641526734693</v>
       </c>
       <c r="T13">
-        <v>0.03258675327844481</v>
+        <v>0.03141762953487282</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.81209200000001</v>
+        <v>52.98516133333333</v>
       </c>
       <c r="H14">
-        <v>287.436276</v>
+        <v>158.955484</v>
       </c>
       <c r="I14">
-        <v>0.3238051478472381</v>
+        <v>0.1360591771554883</v>
       </c>
       <c r="J14">
-        <v>0.3384043265671421</v>
+        <v>0.1479780559884402</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>193.449021104232</v>
+        <v>574.168031376404</v>
       </c>
       <c r="R14">
-        <v>1160.694126625392</v>
+        <v>3445.008188258424</v>
       </c>
       <c r="S14">
-        <v>0.001287239871985424</v>
+        <v>0.002512825590554549</v>
       </c>
       <c r="T14">
-        <v>0.0009160799827715493</v>
+        <v>0.001867922107685121</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.81209200000001</v>
+        <v>52.98516133333333</v>
       </c>
       <c r="H15">
-        <v>287.436276</v>
+        <v>158.955484</v>
       </c>
       <c r="I15">
-        <v>0.3238051478472381</v>
+        <v>0.1360591771554883</v>
       </c>
       <c r="J15">
-        <v>0.3384043265671421</v>
+        <v>0.1479780559884402</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>13384.4526263898</v>
+        <v>7401.752398513754</v>
       </c>
       <c r="R15">
-        <v>120460.0736375082</v>
+        <v>66615.77158662378</v>
       </c>
       <c r="S15">
-        <v>0.08906222935140025</v>
+        <v>0.03239350124970791</v>
       </c>
       <c r="T15">
-        <v>0.09507333555942366</v>
+        <v>0.03611981907365577</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.81209200000001</v>
+        <v>52.98516133333333</v>
       </c>
       <c r="H16">
-        <v>287.436276</v>
+        <v>158.955484</v>
       </c>
       <c r="I16">
-        <v>0.3238051478472381</v>
+        <v>0.1360591771554883</v>
       </c>
       <c r="J16">
-        <v>0.3384043265671421</v>
+        <v>0.1479780559884402</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>17855.04838415721</v>
+        <v>7954.179046301972</v>
       </c>
       <c r="R16">
-        <v>160695.4354574149</v>
+        <v>71587.61141671776</v>
       </c>
       <c r="S16">
-        <v>0.1188102687990974</v>
+        <v>0.03481117646255249</v>
       </c>
       <c r="T16">
-        <v>0.1268291691742199</v>
+        <v>0.03881560643525182</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.81209200000001</v>
+        <v>52.98516133333333</v>
       </c>
       <c r="H17">
-        <v>287.436276</v>
+        <v>158.955484</v>
       </c>
       <c r="I17">
-        <v>0.3238051478472381</v>
+        <v>0.1360591771554883</v>
       </c>
       <c r="J17">
-        <v>0.3384043265671421</v>
+        <v>0.1479780559884402</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>2870.848803619854</v>
+        <v>1720.387019022977</v>
       </c>
       <c r="R17">
-        <v>17225.09282171912</v>
+        <v>10322.32211413786</v>
       </c>
       <c r="S17">
-        <v>0.01910307441912553</v>
+        <v>0.007529211469150513</v>
       </c>
       <c r="T17">
-        <v>0.01359493631731934</v>
+        <v>0.005596878911742884</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>95.81209200000001</v>
+        <v>52.98516133333333</v>
       </c>
       <c r="H18">
-        <v>287.436276</v>
+        <v>158.955484</v>
       </c>
       <c r="I18">
-        <v>0.3238051478472381</v>
+        <v>0.1360591771554883</v>
       </c>
       <c r="J18">
-        <v>0.3384043265671421</v>
+        <v>0.1479780559884402</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>599.1815488591441</v>
+        <v>2760.009787953773</v>
       </c>
       <c r="R18">
-        <v>5392.633939732296</v>
+        <v>24840.08809158396</v>
       </c>
       <c r="S18">
-        <v>0.003987047211957174</v>
+        <v>0.01207908285789715</v>
       </c>
       <c r="T18">
-        <v>0.004256146294946852</v>
+        <v>0.01346857457734292</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>95.81209200000001</v>
+        <v>52.98516133333333</v>
       </c>
       <c r="H19">
-        <v>287.436276</v>
+        <v>158.955484</v>
       </c>
       <c r="I19">
-        <v>0.3238051478472381</v>
+        <v>0.1360591771554883</v>
       </c>
       <c r="J19">
-        <v>0.3384043265671421</v>
+        <v>0.1479780559884402</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>13759.11457020367</v>
+        <v>10678.34258877998</v>
       </c>
       <c r="R19">
-        <v>123832.0311318331</v>
+        <v>96105.08329901983</v>
       </c>
       <c r="S19">
-        <v>0.09155528819367231</v>
+        <v>0.04673337952562569</v>
       </c>
       <c r="T19">
-        <v>0.09773465923846084</v>
+        <v>0.05210925488276168</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.4326165</v>
+        <v>12.8032175</v>
       </c>
       <c r="H20">
-        <v>26.865233</v>
+        <v>25.606435</v>
       </c>
       <c r="I20">
-        <v>0.04539667468859515</v>
+        <v>0.03287703942305158</v>
       </c>
       <c r="J20">
-        <v>0.03162896210579336</v>
+        <v>0.02383806067423477</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>27.121070613859</v>
+        <v>138.7406964944775</v>
       </c>
       <c r="R20">
-        <v>108.484282455436</v>
+        <v>554.96278597791</v>
       </c>
       <c r="S20">
-        <v>0.0001804678217848462</v>
+        <v>0.0006071936324405613</v>
       </c>
       <c r="T20">
-        <v>8.562142025453202E-05</v>
+        <v>0.0003009070516592058</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.4326165</v>
+        <v>12.8032175</v>
       </c>
       <c r="H21">
-        <v>26.865233</v>
+        <v>25.606435</v>
       </c>
       <c r="I21">
-        <v>0.04539667468859515</v>
+        <v>0.03287703942305158</v>
       </c>
       <c r="J21">
-        <v>0.03162896210579336</v>
+        <v>0.02383806067423477</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>1876.466899321141</v>
+        <v>1788.543121405958</v>
       </c>
       <c r="R21">
-        <v>11258.80139592685</v>
+        <v>10731.25872843575</v>
       </c>
       <c r="S21">
-        <v>0.01248630257976627</v>
+        <v>0.007827494182330925</v>
       </c>
       <c r="T21">
-        <v>0.00888602979218636</v>
+        <v>0.00581860893406689</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.4326165</v>
+        <v>12.8032175</v>
       </c>
       <c r="H22">
-        <v>26.865233</v>
+        <v>25.606435</v>
       </c>
       <c r="I22">
-        <v>0.04539667468859515</v>
+        <v>0.03287703942305158</v>
       </c>
       <c r="J22">
-        <v>0.03162896210579336</v>
+        <v>0.02383806067423477</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>2503.233282217952</v>
+        <v>1922.0302779314</v>
       </c>
       <c r="R22">
-        <v>15019.39969330771</v>
+        <v>11532.1816675884</v>
       </c>
       <c r="S22">
-        <v>0.01665690356745567</v>
+        <v>0.008411695887402164</v>
       </c>
       <c r="T22">
-        <v>0.0118540889426978</v>
+        <v>0.006252878341522696</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.4326165</v>
+        <v>12.8032175</v>
       </c>
       <c r="H23">
-        <v>26.865233</v>
+        <v>25.606435</v>
       </c>
       <c r="I23">
-        <v>0.04539667468859515</v>
+        <v>0.03287703942305158</v>
       </c>
       <c r="J23">
-        <v>0.03162896210579336</v>
+        <v>0.02383806067423477</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>402.4858470735542</v>
+        <v>415.7105241250025</v>
       </c>
       <c r="R23">
-        <v>1609.943388294217</v>
+        <v>1662.84209650001</v>
       </c>
       <c r="S23">
-        <v>0.002678203421788071</v>
+        <v>0.001819342050061548</v>
       </c>
       <c r="T23">
-        <v>0.001270650792125299</v>
+        <v>0.0009016116490602798</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.4326165</v>
+        <v>12.8032175</v>
       </c>
       <c r="H24">
-        <v>26.865233</v>
+        <v>25.606435</v>
       </c>
       <c r="I24">
-        <v>0.04539667468859515</v>
+        <v>0.03287703942305158</v>
       </c>
       <c r="J24">
-        <v>0.03162896210579336</v>
+        <v>0.02383806067423477</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>84.00375977283633</v>
+        <v>666.9226766149391</v>
       </c>
       <c r="R24">
-        <v>504.022558637018</v>
+        <v>4001.536059689634</v>
       </c>
       <c r="S24">
-        <v>0.0005589740819521499</v>
+        <v>0.002918762935480329</v>
       </c>
       <c r="T24">
-        <v>0.000397800735130015</v>
+        <v>0.002169677766244189</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.4326165</v>
+        <v>12.8032175</v>
       </c>
       <c r="H25">
-        <v>26.865233</v>
+        <v>25.606435</v>
       </c>
       <c r="I25">
-        <v>0.04539667468859515</v>
+        <v>0.03287703942305158</v>
       </c>
       <c r="J25">
-        <v>0.03162896210579336</v>
+        <v>0.02383806067423477</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>1928.993570050722</v>
+        <v>2580.291146865933</v>
       </c>
       <c r="R25">
-        <v>11573.96142030433</v>
+        <v>15481.7468811956</v>
       </c>
       <c r="S25">
-        <v>0.01283582321584814</v>
+        <v>0.01129255073533605</v>
       </c>
       <c r="T25">
-        <v>0.009134770423399351</v>
+        <v>0.008394376931681512</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.14755033333334</v>
+        <v>30.251696</v>
       </c>
       <c r="H26">
-        <v>123.442651</v>
+        <v>90.755088</v>
       </c>
       <c r="I26">
-        <v>0.1390616606016355</v>
+        <v>0.07768252019511281</v>
       </c>
       <c r="J26">
-        <v>0.1453314375020561</v>
+        <v>0.08448756315510209</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>83.07879691031533</v>
+        <v>327.819266772528</v>
       </c>
       <c r="R26">
-        <v>498.4727814618919</v>
+        <v>1966.915600635168</v>
       </c>
       <c r="S26">
-        <v>0.0005528192352129603</v>
+        <v>0.00143468914604689</v>
       </c>
       <c r="T26">
-        <v>0.0003934205632463537</v>
+        <v>0.001066483716032777</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>41.14755033333334</v>
+        <v>30.251696</v>
       </c>
       <c r="H27">
-        <v>123.442651</v>
+        <v>90.755088</v>
       </c>
       <c r="I27">
-        <v>0.1390616606016355</v>
+        <v>0.07768252019511281</v>
       </c>
       <c r="J27">
-        <v>0.1453314375020561</v>
+        <v>0.08448756315510209</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>5748.099500097438</v>
+        <v>4226.005126575732</v>
       </c>
       <c r="R27">
-        <v>51732.89550087694</v>
+        <v>38034.0461391816</v>
       </c>
       <c r="S27">
-        <v>0.03824874802896089</v>
+        <v>0.01849495835290182</v>
       </c>
       <c r="T27">
-        <v>0.04083028330379504</v>
+        <v>0.02062248672448261</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>41.14755033333334</v>
+        <v>30.251696</v>
       </c>
       <c r="H28">
-        <v>123.442651</v>
+        <v>90.755088</v>
       </c>
       <c r="I28">
-        <v>0.1390616606016355</v>
+        <v>0.07768252019511281</v>
       </c>
       <c r="J28">
-        <v>0.1453314375020561</v>
+        <v>0.08448756315510209</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>7668.045721110136</v>
+        <v>4541.41122501248</v>
       </c>
       <c r="R28">
-        <v>69012.41148999121</v>
+        <v>40872.70102511232</v>
       </c>
       <c r="S28">
-        <v>0.05102436877724916</v>
+        <v>0.01987532171738397</v>
       </c>
       <c r="T28">
-        <v>0.05446817320647858</v>
+        <v>0.02216163726571803</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>41.14755033333334</v>
+        <v>30.251696</v>
       </c>
       <c r="H29">
-        <v>123.442651</v>
+        <v>90.755088</v>
       </c>
       <c r="I29">
-        <v>0.1390616606016355</v>
+        <v>0.07768252019511281</v>
       </c>
       <c r="J29">
-        <v>0.1453314375020561</v>
+        <v>0.08448756315510209</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>1232.91740301775</v>
+        <v>982.249063552208</v>
       </c>
       <c r="R29">
-        <v>7397.504418106499</v>
+        <v>5893.494381313248</v>
       </c>
       <c r="S29">
-        <v>0.008204024145327921</v>
+        <v>0.004298777445472496</v>
       </c>
       <c r="T29">
-        <v>0.005838494022188336</v>
+        <v>0.003195518804249433</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>41.14755033333334</v>
+        <v>30.251696</v>
       </c>
       <c r="H30">
-        <v>123.442651</v>
+        <v>90.755088</v>
       </c>
       <c r="I30">
-        <v>0.1390616606016355</v>
+        <v>0.07768252019511281</v>
       </c>
       <c r="J30">
-        <v>0.1453314375020561</v>
+        <v>0.08448756315510209</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>257.3250664486718</v>
+        <v>1575.818115130938</v>
       </c>
       <c r="R30">
-        <v>2315.925598038046</v>
+        <v>14182.36303617845</v>
       </c>
       <c r="S30">
-        <v>0.001712281011830784</v>
+        <v>0.00689651089815654</v>
       </c>
       <c r="T30">
-        <v>0.001827848554829131</v>
+        <v>0.007689836426161425</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>41.14755033333334</v>
+        <v>30.251696</v>
       </c>
       <c r="H31">
-        <v>123.442651</v>
+        <v>90.755088</v>
       </c>
       <c r="I31">
-        <v>0.1390616606016355</v>
+        <v>0.07768252019511281</v>
       </c>
       <c r="J31">
-        <v>0.1453314375020561</v>
+        <v>0.08448756315510209</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>5909.0021676967</v>
+        <v>6096.763049325653</v>
       </c>
       <c r="R31">
-        <v>53181.0195092703</v>
+        <v>54870.86744393087</v>
       </c>
       <c r="S31">
-        <v>0.03931941940305374</v>
+        <v>0.0266822626351511</v>
       </c>
       <c r="T31">
-        <v>0.04197321785151867</v>
+        <v>0.02975160021845781</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>88.69318133333336</v>
+        <v>180.145574</v>
       </c>
       <c r="H32">
-        <v>266.0795440000001</v>
+        <v>540.436722</v>
       </c>
       <c r="I32">
-        <v>0.2997461812511296</v>
+        <v>0.4625909962309284</v>
       </c>
       <c r="J32">
-        <v>0.3132606299860783</v>
+        <v>0.5031142902016837</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>179.0756129983414</v>
+        <v>1952.128237074582</v>
       </c>
       <c r="R32">
-        <v>1074.453677990048</v>
+        <v>11712.76942244749</v>
       </c>
       <c r="S32">
-        <v>0.001191596979069198</v>
+        <v>0.008543418515318509</v>
       </c>
       <c r="T32">
-        <v>0.0008480145494348867</v>
+        <v>0.006350795049189232</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>88.69318133333336</v>
+        <v>180.145574</v>
       </c>
       <c r="H33">
-        <v>266.0795440000001</v>
+        <v>540.436722</v>
       </c>
       <c r="I33">
-        <v>0.2997461812511296</v>
+        <v>0.4625909962309284</v>
       </c>
       <c r="J33">
-        <v>0.3132606299860783</v>
+        <v>0.5031142902016837</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>12389.97770594342</v>
+        <v>25165.40293324143</v>
       </c>
       <c r="R33">
-        <v>111509.7993534908</v>
+        <v>226488.6263991729</v>
       </c>
       <c r="S33">
-        <v>0.0824448385681284</v>
+        <v>0.110135474341326</v>
       </c>
       <c r="T33">
-        <v>0.08800931505322743</v>
+        <v>0.1228046754234638</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>88.69318133333336</v>
+        <v>180.145574</v>
       </c>
       <c r="H34">
-        <v>266.0795440000001</v>
+        <v>540.436722</v>
       </c>
       <c r="I34">
-        <v>0.2997461812511296</v>
+        <v>0.4625909962309284</v>
       </c>
       <c r="J34">
-        <v>0.3132606299860783</v>
+        <v>0.5031142902016837</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>16528.40482860447</v>
+        <v>27043.61209698512</v>
       </c>
       <c r="R34">
-        <v>148755.6434574402</v>
+        <v>243392.5088728661</v>
       </c>
       <c r="S34">
-        <v>0.1099825762583331</v>
+        <v>0.1183553887098694</v>
       </c>
       <c r="T34">
-        <v>0.1174056662902747</v>
+        <v>0.1319701502359591</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>88.69318133333336</v>
+        <v>180.145574</v>
       </c>
       <c r="H35">
-        <v>266.0795440000001</v>
+        <v>540.436722</v>
       </c>
       <c r="I35">
-        <v>0.2997461812511296</v>
+        <v>0.4625909962309284</v>
       </c>
       <c r="J35">
-        <v>0.3132606299860783</v>
+        <v>0.5031142902016837</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>2657.54257322801</v>
+        <v>5849.186814669002</v>
       </c>
       <c r="R35">
-        <v>15945.25543936806</v>
+        <v>35095.12088801401</v>
       </c>
       <c r="S35">
-        <v>0.01768370158830956</v>
+        <v>0.02559875421242156</v>
       </c>
       <c r="T35">
-        <v>0.01258482229995691</v>
+        <v>0.01902896846574512</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>88.69318133333336</v>
+        <v>180.145574</v>
       </c>
       <c r="H36">
-        <v>266.0795440000001</v>
+        <v>540.436722</v>
       </c>
       <c r="I36">
-        <v>0.2997461812511296</v>
+        <v>0.4625909962309284</v>
       </c>
       <c r="J36">
-        <v>0.3132606299860783</v>
+        <v>0.5031142902016837</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>554.6619080663805</v>
+        <v>9383.826244646283</v>
       </c>
       <c r="R36">
-        <v>4991.957172597425</v>
+        <v>84454.43620181656</v>
       </c>
       <c r="S36">
-        <v>0.003690806598343336</v>
+        <v>0.04106797563831349</v>
       </c>
       <c r="T36">
-        <v>0.003939911416597771</v>
+        <v>0.04579214325560321</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>88.69318133333336</v>
+        <v>180.145574</v>
       </c>
       <c r="H37">
-        <v>266.0795440000001</v>
+        <v>540.436722</v>
       </c>
       <c r="I37">
-        <v>0.2997461812511296</v>
+        <v>0.4625909962309284</v>
       </c>
       <c r="J37">
-        <v>0.3132606299860783</v>
+        <v>0.5031142902016837</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>12736.80198488082</v>
+        <v>36305.56379591941</v>
       </c>
       <c r="R37">
-        <v>114631.2178639273</v>
+        <v>326750.0741632747</v>
       </c>
       <c r="S37">
-        <v>0.08475266125894602</v>
+        <v>0.1588899848136795</v>
       </c>
       <c r="T37">
-        <v>0.0904729003765866</v>
+        <v>0.1771675577717232</v>
       </c>
     </row>
   </sheetData>
